--- a/Эксперементы/ОКПД.xlsx
+++ b/Эксперементы/ОКПД.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Project4\Documents\GitHub\TenderSense\Эксперементы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5AB97C44-A1A6-4A15-A54A-5DF409D729EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CC6E41-2AEE-4B4D-AC43-6F6D81F1FE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ОКПД" sheetId="1" r:id="rId1"/>
+    <sheet name="sql like" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ОКПД!$A$1:$E$57</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="162">
   <si>
     <t>Заказчик: наименование</t>
   </si>
@@ -506,12 +518,15 @@
   </si>
   <si>
     <t>короткая ссылка</t>
+  </si>
+  <si>
+    <t>33.12.20.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1007,8 +1022,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1394,11 +1415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E55"/>
     </sheetView>
   </sheetViews>
@@ -2250,7 +2271,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E57">
+  <autoFilter ref="A1:E57" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2261,7 +2282,360 @@
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70190FFA-30C3-48D5-80E5-EC04671E2BF7}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>8889410</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>8889756</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>8891045</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8889389</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>9370131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>8890645</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8890590</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8879383</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8891044</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8891289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8886913</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8889832</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8889749</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8889387</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>8878456</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>8889631</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>8877775</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>8878292</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>8891135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>9370175</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>73729</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>73158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>8891134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>8886891</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>8889396</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>73123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>9370135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>8889753</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>8890817</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>8887459</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B30">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
